--- a/biology/Zoologie/Glyphoglossus_yunnanensis/Glyphoglossus_yunnanensis.xlsx
+++ b/biology/Zoologie/Glyphoglossus_yunnanensis/Glyphoglossus_yunnanensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Glyphoglossus yunnanensis est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Glyphoglossus yunnanensis est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre entre 700 et 2 400 m d'altitude[1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre entre 700 et 2 400 m d'altitude, :
 en Chine dans les provinces du Guizhou, du Sichuan et du Yunnan ;
 dans le nord du Viêt Nam dans les provinces de Lào Cai et de Lai Châu.
 Sa présence est incertaine en Birmanie et au Laos.
@@ -545,9 +559,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Glyphoglossus yunnanensis mesure environ 30 mm. Son dos est gris clair ou brun rosé. Son ventre est blanc tacheté de brun, surtout au niveau de la gorge[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Glyphoglossus yunnanensis mesure environ 30 mm. Son dos est gris clair ou brun rosé. Son ventre est blanc tacheté de brun, surtout au niveau de la gorge.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de yunnan et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, la province du Yunnan.
 </t>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boulenger, 1919 : Description of a new Dyscophid Frog from Yunnan. Annals and magazine of natural history, sér. 9, vol. 3, p. 548 (texte intégral).</t>
         </is>
